--- a/Hyperparametertuning.xlsx
+++ b/Hyperparametertuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Joshua\Desktop\Ai Datathon 3\UnitedPythons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F27FB55-EF63-4BD3-AEF7-C01140C3E7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8827E1A8-1695-4714-BA10-CFB58D868909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9195" yWindow="285" windowWidth="16935" windowHeight="11385" xr2:uid="{677B5B50-C2E7-4932-A25D-AB190BEA94A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>Window Size</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>2.9628806</t>
+  </si>
+  <si>
+    <t>1.2264198</t>
+  </si>
+  <si>
+    <t>1.2101133</t>
   </si>
 </sst>
 </file>
@@ -576,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB904B9-13D0-4B6F-B742-0BF2599C711D}">
   <dimension ref="B3:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,10 +1092,50 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H26" s="4"/>
+      <c r="B26">
+        <v>470</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H27" s="4"/>
+      <c r="B27">
+        <v>300</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
